--- a/metagenome/data_figures/filtered_data_1percent_change/family_data/virus_family_no_HF.xlsx
+++ b/metagenome/data_figures/filtered_data_1percent_change/family_data/virus_family_no_HF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="13935" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,14 +1367,13 @@
   <sheetPr/>
   <dimension ref="A1:CG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="V6:X6"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:CG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="11.7777777777778"/>
+    <col min="9" max="9" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:85">
